--- a/Parvathy Padmanabh/Jan 29/Name.xlsx
+++ b/Parvathy Padmanabh/Jan 29/Name.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Parvathy</t>
-  </si>
-  <si>
-    <t>9075216271</t>
   </si>
 </sst>
 </file>
@@ -364,50 +358,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
